--- a/Data/Processing/2024-02-02/PAGEIND.xlsx
+++ b/Data/Processing/2024-02-02/PAGEIND.xlsx
@@ -666,13 +666,13 @@
         <v>39541.62</v>
       </c>
       <c r="C3">
-        <v>39554.97</v>
+        <v>39554.98</v>
       </c>
       <c r="D3">
         <v>38836.01</v>
       </c>
       <c r="E3">
-        <v>39256.24</v>
+        <v>39256.25</v>
       </c>
       <c r="F3">
         <v>39541.62</v>
@@ -719,13 +719,13 @@
         <v>39426.67</v>
       </c>
       <c r="D4">
-        <v>38990.29</v>
+        <v>38990.3</v>
       </c>
       <c r="E4">
         <v>39184.2</v>
       </c>
       <c r="F4">
-        <v>39256.24</v>
+        <v>39256.25</v>
       </c>
       <c r="G4">
         <v>44965</v>
@@ -743,7 +743,7 @@
         <v>-0.84</v>
       </c>
       <c r="L4">
-        <v>62.18</v>
+        <v>62.17</v>
       </c>
       <c r="M4">
         <v>0.4999999999999999</v>
@@ -866,7 +866,7 @@
         <v>37465.26</v>
       </c>
       <c r="C7">
-        <v>39417.32</v>
+        <v>39417.33</v>
       </c>
       <c r="D7">
         <v>36914.08</v>
@@ -913,7 +913,7 @@
         <v>44970</v>
       </c>
       <c r="B8">
-        <v>38519.15</v>
+        <v>38519.16</v>
       </c>
       <c r="C8">
         <v>39182.36</v>
@@ -943,7 +943,7 @@
         <v>-1.99</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="M8">
         <v>1.14</v>
@@ -1066,13 +1066,13 @@
         <v>38135.61</v>
       </c>
       <c r="C11">
-        <v>38725.12</v>
+        <v>38725.13</v>
       </c>
       <c r="D11">
         <v>38041.37</v>
       </c>
       <c r="E11">
-        <v>38461.4</v>
+        <v>38461.41</v>
       </c>
       <c r="F11">
         <v>38113.57</v>
@@ -1116,16 +1116,16 @@
         <v>38592.65</v>
       </c>
       <c r="C12">
-        <v>39001.45</v>
+        <v>39001.46</v>
       </c>
       <c r="D12">
         <v>38095.37</v>
       </c>
       <c r="E12">
-        <v>38670.33</v>
+        <v>38670.34</v>
       </c>
       <c r="F12">
-        <v>38461.4</v>
+        <v>38461.41</v>
       </c>
       <c r="G12">
         <v>16163</v>
@@ -1143,7 +1143,7 @@
         <v>-1.31</v>
       </c>
       <c r="L12">
-        <v>131.25</v>
+        <v>131.24</v>
       </c>
       <c r="M12">
         <v>-0.8500000000000001</v>
@@ -1175,7 +1175,7 @@
         <v>38367.41</v>
       </c>
       <c r="F13">
-        <v>38670.33</v>
+        <v>38670.34</v>
       </c>
       <c r="G13">
         <v>16664</v>
@@ -1193,7 +1193,7 @@
         <v>-1.32</v>
       </c>
       <c r="L13">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="M13">
         <v>0.53</v>
@@ -1316,10 +1316,10 @@
         <v>37945.13</v>
       </c>
       <c r="C16">
-        <v>37995.86</v>
+        <v>37995.85</v>
       </c>
       <c r="D16">
-        <v>37365.25</v>
+        <v>37365.24</v>
       </c>
       <c r="E16">
         <v>37859.44</v>
@@ -1366,13 +1366,13 @@
         <v>38034.65</v>
       </c>
       <c r="C17">
-        <v>38232.53</v>
+        <v>38232.54</v>
       </c>
       <c r="D17">
         <v>37622.91</v>
       </c>
       <c r="E17">
-        <v>37860.58</v>
+        <v>37860.59</v>
       </c>
       <c r="F17">
         <v>37859.44</v>
@@ -1419,13 +1419,13 @@
         <v>38008.89</v>
       </c>
       <c r="D18">
-        <v>37335.51</v>
+        <v>37335.5</v>
       </c>
       <c r="E18">
         <v>37593.62</v>
       </c>
       <c r="F18">
-        <v>37860.58</v>
+        <v>37860.59</v>
       </c>
       <c r="G18">
         <v>13632</v>
@@ -1443,7 +1443,7 @@
         <v>-1.8</v>
       </c>
       <c r="L18">
-        <v>148.31</v>
+        <v>148.3</v>
       </c>
       <c r="M18">
         <v>0.7</v>
@@ -1513,16 +1513,16 @@
         <v>44986</v>
       </c>
       <c r="B20">
-        <v>37796.92</v>
+        <v>37796.93</v>
       </c>
       <c r="C20">
-        <v>38433.5</v>
+        <v>38433.51</v>
       </c>
       <c r="D20">
-        <v>37796.92</v>
+        <v>37796.93</v>
       </c>
       <c r="E20">
-        <v>37986.65</v>
+        <v>37986.66</v>
       </c>
       <c r="F20">
         <v>37766.74</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>30.18</v>
+        <v>30.19</v>
       </c>
       <c r="M20">
         <v>-1.16</v>
@@ -1575,7 +1575,7 @@
         <v>37217.34</v>
       </c>
       <c r="F21">
-        <v>37986.65</v>
+        <v>37986.66</v>
       </c>
       <c r="G21">
         <v>14787</v>
@@ -1593,7 +1593,7 @@
         <v>-2.25</v>
       </c>
       <c r="L21">
-        <v>-90.16</v>
+        <v>-90.17</v>
       </c>
       <c r="M21">
         <v>0.4299999999999999</v>
@@ -1663,13 +1663,13 @@
         <v>44991</v>
       </c>
       <c r="B23">
-        <v>37279.71</v>
+        <v>37279.7</v>
       </c>
       <c r="C23">
         <v>37364.8</v>
       </c>
       <c r="D23">
-        <v>36842.06</v>
+        <v>36842.05</v>
       </c>
       <c r="E23">
         <v>37105.99</v>
@@ -1693,7 +1693,7 @@
         <v>-1.19</v>
       </c>
       <c r="L23">
-        <v>182.67</v>
+        <v>182.66</v>
       </c>
       <c r="M23">
         <v>0.72</v>
@@ -1722,7 +1722,7 @@
         <v>36513.82</v>
       </c>
       <c r="E24">
-        <v>37066.9</v>
+        <v>37066.89</v>
       </c>
       <c r="F24">
         <v>37105.99</v>
@@ -1775,7 +1775,7 @@
         <v>36458.07</v>
       </c>
       <c r="F25">
-        <v>37066.9</v>
+        <v>37066.89</v>
       </c>
       <c r="G25">
         <v>13994</v>
@@ -1793,7 +1793,7 @@
         <v>-2.46</v>
       </c>
       <c r="L25">
-        <v>181.97</v>
+        <v>181.98</v>
       </c>
       <c r="M25">
         <v>0.29</v>
@@ -1819,7 +1819,7 @@
         <v>36926.4</v>
       </c>
       <c r="D26">
-        <v>35968.85</v>
+        <v>35968.84</v>
       </c>
       <c r="E26">
         <v>36831.31</v>
@@ -2163,7 +2163,7 @@
         <v>45006</v>
       </c>
       <c r="B33">
-        <v>37647.72</v>
+        <v>37647.73</v>
       </c>
       <c r="C33">
         <v>38110.14</v>
@@ -2172,7 +2172,7 @@
         <v>37543.04</v>
       </c>
       <c r="E33">
-        <v>38023.9</v>
+        <v>38023.91</v>
       </c>
       <c r="F33">
         <v>37713.43</v>
@@ -2193,7 +2193,7 @@
         <v>-0.28</v>
       </c>
       <c r="L33">
-        <v>-65.70999999999999</v>
+        <v>-65.7</v>
       </c>
       <c r="M33">
         <v>-0.22</v>
@@ -2225,7 +2225,7 @@
         <v>38391.18</v>
       </c>
       <c r="F34">
-        <v>38023.9</v>
+        <v>38023.91</v>
       </c>
       <c r="G34">
         <v>18711</v>
@@ -2243,7 +2243,7 @@
         <v>-0.02</v>
       </c>
       <c r="L34">
-        <v>-0.2</v>
+        <v>-0.21</v>
       </c>
       <c r="M34">
         <v>-0.3900000000000001</v>
@@ -2319,10 +2319,10 @@
         <v>37548.26</v>
       </c>
       <c r="D36">
-        <v>36812.21</v>
+        <v>36812.22</v>
       </c>
       <c r="E36">
-        <v>36916.9</v>
+        <v>36916.91</v>
       </c>
       <c r="F36">
         <v>37315.86</v>
@@ -2375,7 +2375,7 @@
         <v>37294.72</v>
       </c>
       <c r="F37">
-        <v>36916.9</v>
+        <v>36916.91</v>
       </c>
       <c r="G37">
         <v>18517</v>
@@ -2393,7 +2393,7 @@
         <v>-0.41</v>
       </c>
       <c r="L37">
-        <v>-63.86</v>
+        <v>-63.87</v>
       </c>
       <c r="M37">
         <v>-0.6100000000000001</v>
@@ -2463,16 +2463,16 @@
         <v>45014</v>
       </c>
       <c r="B39">
-        <v>37523.39</v>
+        <v>37523.4</v>
       </c>
       <c r="C39">
-        <v>38284.5</v>
+        <v>38284.51</v>
       </c>
       <c r="D39">
         <v>37358.33</v>
       </c>
       <c r="E39">
-        <v>37967.8</v>
+        <v>37967.81</v>
       </c>
       <c r="F39">
         <v>37686.66</v>
@@ -2493,7 +2493,7 @@
         <v>-0.44</v>
       </c>
       <c r="L39">
-        <v>-163.27</v>
+        <v>-163.26</v>
       </c>
       <c r="M39">
         <v>-0.8200000000000001</v>
@@ -2525,7 +2525,7 @@
         <v>37700.74</v>
       </c>
       <c r="F40">
-        <v>37967.8</v>
+        <v>37967.81</v>
       </c>
       <c r="G40">
         <v>37024</v>
@@ -2543,7 +2543,7 @@
         <v>-0.83</v>
       </c>
       <c r="L40">
-        <v>-81.36</v>
+        <v>-81.37</v>
       </c>
       <c r="M40">
         <v>0.34</v>
@@ -2569,7 +2569,7 @@
         <v>38025.7</v>
       </c>
       <c r="D41">
-        <v>37309.55</v>
+        <v>37309.54</v>
       </c>
       <c r="E41">
         <v>37587.3</v>
@@ -2772,7 +2772,7 @@
         <v>36171.76</v>
       </c>
       <c r="E45">
-        <v>36274.5</v>
+        <v>36274.51</v>
       </c>
       <c r="F45">
         <v>36426.98</v>
@@ -2802,7 +2802,7 @@
         <v>1.67</v>
       </c>
       <c r="O45">
-        <v>37646.37409090909</v>
+        <v>37646.37590909091</v>
       </c>
       <c r="P45">
         <v>0</v>
@@ -2825,7 +2825,7 @@
         <v>37596.95</v>
       </c>
       <c r="F46">
-        <v>36274.5</v>
+        <v>36274.51</v>
       </c>
       <c r="G46">
         <v>39576</v>
@@ -2843,7 +2843,7 @@
         <v>-0.14</v>
       </c>
       <c r="L46">
-        <v>129.91</v>
+        <v>129.9</v>
       </c>
       <c r="M46">
         <v>-0.5100000000000002</v>
@@ -2852,7 +2852,7 @@
         <v>3.96</v>
       </c>
       <c r="O46">
-        <v>37602.17704545454</v>
+        <v>37602.17886363636</v>
       </c>
       <c r="P46">
         <v>1</v>
@@ -2902,7 +2902,7 @@
         <v>1.73</v>
       </c>
       <c r="O47">
-        <v>37562.22681818181</v>
+        <v>37562.2284090909</v>
       </c>
       <c r="P47">
         <v>1</v>
@@ -2952,7 +2952,7 @@
         <v>1.79</v>
       </c>
       <c r="O48">
-        <v>37536.04977272727</v>
+        <v>37536.05136363636</v>
       </c>
       <c r="P48">
         <v>1</v>
@@ -3002,7 +3002,7 @@
         <v>2.83</v>
       </c>
       <c r="O49">
-        <v>37518.7375</v>
+        <v>37518.73909090909</v>
       </c>
       <c r="P49">
         <v>0</v>
@@ -3013,7 +3013,7 @@
         <v>45035</v>
       </c>
       <c r="B50">
-        <v>38329.06</v>
+        <v>38329.07</v>
       </c>
       <c r="C50">
         <v>38394.81</v>
@@ -3043,7 +3043,7 @@
         <v>-1.57</v>
       </c>
       <c r="L50">
-        <v>10.04</v>
+        <v>10.05</v>
       </c>
       <c r="M50">
         <v>0.21</v>
@@ -3052,7 +3052,7 @@
         <v>1.71</v>
       </c>
       <c r="O50">
-        <v>37521.39727272727</v>
+        <v>37521.39886363636</v>
       </c>
       <c r="P50">
         <v>0</v>
@@ -3066,13 +3066,13 @@
         <v>37985.91</v>
       </c>
       <c r="C51">
-        <v>39738.49</v>
+        <v>39738.5</v>
       </c>
       <c r="D51">
         <v>37896.84</v>
       </c>
       <c r="E51">
-        <v>39049.34</v>
+        <v>39049.35</v>
       </c>
       <c r="F51">
         <v>37815.82</v>
@@ -3102,7 +3102,7 @@
         <v>4.85</v>
       </c>
       <c r="O51">
-        <v>37533.44704545454</v>
+        <v>37533.44886363636</v>
       </c>
       <c r="P51">
         <v>0</v>
@@ -3125,7 +3125,7 @@
         <v>39840.64</v>
       </c>
       <c r="F52">
-        <v>39049.34</v>
+        <v>39049.35</v>
       </c>
       <c r="G52">
         <v>49286</v>
@@ -3143,7 +3143,7 @@
         <v>-0.38</v>
       </c>
       <c r="L52">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="M52">
         <v>-0.2300000000000002</v>
@@ -3152,7 +3152,7 @@
         <v>2.65</v>
       </c>
       <c r="O52">
-        <v>37570.88295454546</v>
+        <v>37570.88477272727</v>
       </c>
       <c r="P52">
         <v>0</v>
@@ -3166,7 +3166,7 @@
         <v>39835.97</v>
       </c>
       <c r="C53">
-        <v>40514.43</v>
+        <v>40514.42</v>
       </c>
       <c r="D53">
         <v>39588.3</v>
@@ -3202,7 +3202,7 @@
         <v>2.32</v>
       </c>
       <c r="O53">
-        <v>37620.55659090909</v>
+        <v>37620.5584090909</v>
       </c>
       <c r="P53">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>1.24</v>
       </c>
       <c r="O54">
-        <v>37673.30954545455</v>
+        <v>37673.31136363637</v>
       </c>
       <c r="P54">
         <v>0</v>
@@ -3302,7 +3302,7 @@
         <v>2.01</v>
       </c>
       <c r="O55">
-        <v>37726.29090909091</v>
+        <v>37726.2925</v>
       </c>
       <c r="P55">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>40762.74</v>
       </c>
       <c r="C56">
-        <v>40999.67</v>
+        <v>40999.66</v>
       </c>
       <c r="D56">
         <v>40364.13</v>
       </c>
       <c r="E56">
-        <v>40492.3</v>
+        <v>40492.29</v>
       </c>
       <c r="F56">
         <v>40792.58</v>
@@ -3352,7 +3352,7 @@
         <v>1.56</v>
       </c>
       <c r="O56">
-        <v>37767.69931818182</v>
+        <v>37767.70045454545</v>
       </c>
       <c r="P56">
         <v>0</v>
@@ -3375,7 +3375,7 @@
         <v>40105.22</v>
       </c>
       <c r="F57">
-        <v>40492.3</v>
+        <v>40492.29</v>
       </c>
       <c r="G57">
         <v>33886</v>
@@ -3393,7 +3393,7 @@
         <v>-3.65</v>
       </c>
       <c r="L57">
-        <v>30.13</v>
+        <v>30.14</v>
       </c>
       <c r="M57">
         <v>2.61</v>
@@ -3402,7 +3402,7 @@
         <v>3.72</v>
       </c>
       <c r="O57">
-        <v>37807.195</v>
+        <v>37807.19613636364</v>
       </c>
       <c r="P57">
         <v>0</v>
@@ -3416,13 +3416,13 @@
         <v>40333.3</v>
       </c>
       <c r="C58">
-        <v>40373.09</v>
+        <v>40373.08</v>
       </c>
       <c r="D58">
         <v>39139.71</v>
       </c>
       <c r="E58">
-        <v>40014.12</v>
+        <v>40014.11</v>
       </c>
       <c r="F58">
         <v>40105.22</v>
@@ -3452,7 +3452,7 @@
         <v>3.06</v>
       </c>
       <c r="O58">
-        <v>37842.92363636364</v>
+        <v>37842.92454545455</v>
       </c>
       <c r="P58">
         <v>0</v>
@@ -3466,16 +3466,16 @@
         <v>39985.17</v>
       </c>
       <c r="C59">
-        <v>40422.82</v>
+        <v>40422.81</v>
       </c>
       <c r="D59">
-        <v>39650.42</v>
+        <v>39650.41</v>
       </c>
       <c r="E59">
-        <v>40231.95</v>
+        <v>40231.94</v>
       </c>
       <c r="F59">
-        <v>40014.12</v>
+        <v>40014.11</v>
       </c>
       <c r="G59">
         <v>12351</v>
@@ -3493,7 +3493,7 @@
         <v>-0.84</v>
       </c>
       <c r="L59">
-        <v>-28.95</v>
+        <v>-28.94</v>
       </c>
       <c r="M59">
         <v>-0.4700000000000001</v>
@@ -3502,7 +3502,7 @@
         <v>1.93</v>
       </c>
       <c r="O59">
-        <v>37895.25295454545</v>
+        <v>37895.25363636363</v>
       </c>
       <c r="P59">
         <v>0</v>
@@ -3525,7 +3525,7 @@
         <v>40663.62</v>
       </c>
       <c r="F60">
-        <v>40231.95</v>
+        <v>40231.94</v>
       </c>
       <c r="G60">
         <v>19969</v>
@@ -3543,7 +3543,7 @@
         <v>-0.47</v>
       </c>
       <c r="L60">
-        <v>91.40000000000001</v>
+        <v>91.41</v>
       </c>
       <c r="M60">
         <v>-0.5100000000000001</v>
@@ -3552,7 +3552,7 @@
         <v>1.84</v>
       </c>
       <c r="O60">
-        <v>37958.98431818182</v>
+        <v>37958.985</v>
       </c>
       <c r="P60">
         <v>0</v>
@@ -3563,13 +3563,13 @@
         <v>45051</v>
       </c>
       <c r="B61">
-        <v>40780.9</v>
+        <v>40780.89</v>
       </c>
       <c r="C61">
-        <v>41238.44</v>
+        <v>41238.43</v>
       </c>
       <c r="D61">
-        <v>40542.33</v>
+        <v>40542.32</v>
       </c>
       <c r="E61">
         <v>40898.16</v>
@@ -3593,7 +3593,7 @@
         <v>-0.59</v>
       </c>
       <c r="L61">
-        <v>117.28</v>
+        <v>117.27</v>
       </c>
       <c r="M61">
         <v>-0.8200000000000001</v>
@@ -3602,7 +3602,7 @@
         <v>1.71</v>
       </c>
       <c r="O61">
-        <v>38028.02022727273</v>
+        <v>38028.02068181818</v>
       </c>
       <c r="P61">
         <v>0</v>
@@ -3613,7 +3613,7 @@
         <v>45054</v>
       </c>
       <c r="B62">
-        <v>41178.71</v>
+        <v>41178.7</v>
       </c>
       <c r="C62">
         <v>41402.5</v>
@@ -3643,7 +3643,7 @@
         <v>-0.73</v>
       </c>
       <c r="L62">
-        <v>280.55</v>
+        <v>280.54</v>
       </c>
       <c r="M62">
         <v>0.6599999999999999</v>
@@ -3652,7 +3652,7 @@
         <v>1.27</v>
       </c>
       <c r="O62">
-        <v>38108.86522727273</v>
+        <v>38108.86568181818</v>
       </c>
       <c r="P62">
         <v>0</v>
@@ -3702,7 +3702,7 @@
         <v>2.19</v>
       </c>
       <c r="O63">
-        <v>38185.55204545455</v>
+        <v>38185.5525</v>
       </c>
       <c r="P63">
         <v>0</v>
@@ -3752,7 +3752,7 @@
         <v>1.56</v>
       </c>
       <c r="O64">
-        <v>38256.74590909091</v>
+        <v>38256.74613636363</v>
       </c>
       <c r="P64">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>1.41</v>
       </c>
       <c r="O65">
-        <v>38354.65295454546</v>
+        <v>38354.65318181818</v>
       </c>
       <c r="P65">
         <v>0</v>
@@ -3816,7 +3816,7 @@
         <v>41516.94</v>
       </c>
       <c r="C66">
-        <v>42079.82</v>
+        <v>42079.81</v>
       </c>
       <c r="D66">
         <v>41218.54</v>
@@ -3852,7 +3852,7 @@
         <v>2.07</v>
       </c>
       <c r="O66">
-        <v>38466.73590909091</v>
+        <v>38466.73613636364</v>
       </c>
       <c r="P66">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>42512.64</v>
       </c>
       <c r="D67">
-        <v>41804.05</v>
+        <v>41804.04</v>
       </c>
       <c r="E67">
         <v>42011.43</v>
@@ -3902,7 +3902,7 @@
         <v>1.68</v>
       </c>
       <c r="O67">
-        <v>38578.22318181818</v>
+        <v>38578.22340909091</v>
       </c>
       <c r="P67">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>3.11</v>
       </c>
       <c r="O68">
-        <v>38708.07886363636</v>
+        <v>38708.07931818182</v>
       </c>
       <c r="P68">
         <v>0</v>
@@ -3972,7 +3972,7 @@
         <v>42081.95</v>
       </c>
       <c r="E69">
-        <v>42169.53</v>
+        <v>42169.54</v>
       </c>
       <c r="F69">
         <v>42780.55</v>
@@ -4002,7 +4002,7 @@
         <v>2.51</v>
       </c>
       <c r="O69">
-        <v>38837.88477272727</v>
+        <v>38837.88545454545</v>
       </c>
       <c r="P69">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>41516.14</v>
       </c>
       <c r="F70">
-        <v>42169.53</v>
+        <v>42169.54</v>
       </c>
       <c r="G70">
         <v>18748</v>
@@ -4043,7 +4043,7 @@
         <v>-2.47</v>
       </c>
       <c r="L70">
-        <v>153.03</v>
+        <v>153.02</v>
       </c>
       <c r="M70">
         <v>0.5300000000000002</v>
@@ -4052,7 +4052,7 @@
         <v>2.77</v>
       </c>
       <c r="O70">
-        <v>38944.35818181818</v>
+        <v>38944.35886363636</v>
       </c>
       <c r="P70">
         <v>0</v>
@@ -4063,16 +4063,16 @@
         <v>45065</v>
       </c>
       <c r="B71">
-        <v>41774.55</v>
+        <v>41774.56</v>
       </c>
       <c r="C71">
-        <v>42024.21</v>
+        <v>42024.22</v>
       </c>
       <c r="D71">
         <v>41189.3</v>
       </c>
       <c r="E71">
-        <v>41452.18</v>
+        <v>41452.19</v>
       </c>
       <c r="F71">
         <v>41516.14</v>
@@ -4093,7 +4093,7 @@
         <v>-1.42</v>
       </c>
       <c r="L71">
-        <v>258.41</v>
+        <v>258.42</v>
       </c>
       <c r="M71">
         <v>0.6399999999999999</v>
@@ -4102,7 +4102,7 @@
         <v>2</v>
       </c>
       <c r="O71">
-        <v>39066.60477272727</v>
+        <v>39066.60568181818</v>
       </c>
       <c r="P71">
         <v>0</v>
@@ -4125,7 +4125,7 @@
         <v>41564.73</v>
       </c>
       <c r="F72">
-        <v>41452.18</v>
+        <v>41452.19</v>
       </c>
       <c r="G72">
         <v>8426</v>
@@ -4143,7 +4143,7 @@
         <v>-0.22</v>
       </c>
       <c r="L72">
-        <v>-4.87</v>
+        <v>-4.88</v>
       </c>
       <c r="M72">
         <v>-0.6</v>
@@ -4152,7 +4152,7 @@
         <v>1.11</v>
       </c>
       <c r="O72">
-        <v>39190.91863636364</v>
+        <v>39190.91954545455</v>
       </c>
       <c r="P72">
         <v>0</v>
@@ -4202,7 +4202,7 @@
         <v>1.33</v>
       </c>
       <c r="O73">
-        <v>39289.23590909091</v>
+        <v>39289.23681818182</v>
       </c>
       <c r="P73">
         <v>0</v>
@@ -4252,7 +4252,7 @@
         <v>1.82</v>
       </c>
       <c r="O74">
-        <v>39384.78613636364</v>
+        <v>39384.78704545454</v>
       </c>
       <c r="P74">
         <v>0</v>
@@ -4302,7 +4302,7 @@
         <v>1.07</v>
       </c>
       <c r="O75">
-        <v>39472.88113636363</v>
+        <v>39472.88204545454</v>
       </c>
       <c r="P75">
         <v>0</v>
@@ -4352,7 +4352,7 @@
         <v>7.87</v>
       </c>
       <c r="O76">
-        <v>39463.50522727273</v>
+        <v>39463.50613636363</v>
       </c>
       <c r="P76">
         <v>0</v>
@@ -4363,7 +4363,7 @@
         <v>45075</v>
       </c>
       <c r="B77">
-        <v>37936.17</v>
+        <v>37936.18</v>
       </c>
       <c r="C77">
         <v>38045.59</v>
@@ -4393,7 +4393,7 @@
         <v>-1.92</v>
       </c>
       <c r="L77">
-        <v>635.28</v>
+        <v>635.29</v>
       </c>
       <c r="M77">
         <v>1.27</v>
@@ -4402,7 +4402,7 @@
         <v>2.17</v>
       </c>
       <c r="O77">
-        <v>39455.98431818182</v>
+        <v>39455.985</v>
       </c>
       <c r="P77">
         <v>0</v>
@@ -4452,7 +4452,7 @@
         <v>4.16</v>
       </c>
       <c r="O78">
-        <v>39462.68022727273</v>
+        <v>39462.68090909092</v>
       </c>
       <c r="P78">
         <v>0</v>
@@ -4502,7 +4502,7 @@
         <v>2.79</v>
       </c>
       <c r="O79">
-        <v>39491.14772727273</v>
+        <v>39491.14840909091</v>
       </c>
       <c r="P79">
         <v>0</v>
@@ -4552,7 +4552,7 @@
         <v>1.39</v>
       </c>
       <c r="O80">
-        <v>39536.7709090909</v>
+        <v>39536.77136363637</v>
       </c>
       <c r="P80">
         <v>0</v>
@@ -4602,7 +4602,7 @@
         <v>2.12</v>
       </c>
       <c r="O81">
-        <v>39562.37159090909</v>
+        <v>39562.37204545454</v>
       </c>
       <c r="P81">
         <v>0</v>
@@ -4652,7 +4652,7 @@
         <v>2.02</v>
       </c>
       <c r="O82">
-        <v>39586.02295454546</v>
+        <v>39586.02340909091</v>
       </c>
       <c r="P82">
         <v>0</v>
@@ -4702,7 +4702,7 @@
         <v>1.03</v>
       </c>
       <c r="O83">
-        <v>39601.43386363637</v>
+        <v>39601.43409090909</v>
       </c>
       <c r="P83">
         <v>0</v>
@@ -4752,7 +4752,7 @@
         <v>1.64</v>
       </c>
       <c r="O84">
-        <v>39633.75704545455</v>
+        <v>39633.75727272727</v>
       </c>
       <c r="P84">
         <v>0</v>
@@ -4763,13 +4763,13 @@
         <v>45085</v>
       </c>
       <c r="B85">
-        <v>38955.75</v>
+        <v>38955.74</v>
       </c>
       <c r="C85">
-        <v>39148.91</v>
+        <v>39148.9</v>
       </c>
       <c r="D85">
-        <v>38653.91</v>
+        <v>38653.9</v>
       </c>
       <c r="E85">
         <v>38855.48</v>
@@ -4793,7 +4793,7 @@
         <v>-0.78</v>
       </c>
       <c r="L85">
-        <v>-167.21</v>
+        <v>-167.22</v>
       </c>
       <c r="M85">
         <v>0.52</v>
@@ -4802,7 +4802,7 @@
         <v>1.27</v>
       </c>
       <c r="O85">
-        <v>39662.57931818182</v>
+        <v>39662.57954545454</v>
       </c>
       <c r="P85">
         <v>0</v>
@@ -4852,7 +4852,7 @@
         <v>2.45</v>
       </c>
       <c r="O86">
-        <v>39686.28159090909</v>
+        <v>39686.28181818182</v>
       </c>
       <c r="P86">
         <v>0</v>
@@ -4902,7 +4902,7 @@
         <v>1.72</v>
       </c>
       <c r="O87">
-        <v>39725.69431818182</v>
+        <v>39725.69454545455</v>
       </c>
       <c r="P87">
         <v>0</v>
@@ -4952,7 +4952,7 @@
         <v>0.93</v>
       </c>
       <c r="O88">
-        <v>39766.9025</v>
+        <v>39766.90272727273</v>
       </c>
       <c r="P88">
         <v>0</v>
@@ -5052,7 +5052,7 @@
         <v>1.85</v>
       </c>
       <c r="O90">
-        <v>39828.27136363637</v>
+        <v>39828.27136363636</v>
       </c>
       <c r="P90">
         <v>0</v>
@@ -5102,7 +5102,7 @@
         <v>1.72</v>
       </c>
       <c r="O91">
-        <v>39849.24340909091</v>
+        <v>39849.24340909092</v>
       </c>
       <c r="P91">
         <v>0</v>
@@ -5202,7 +5202,7 @@
         <v>1.19</v>
       </c>
       <c r="O93">
-        <v>39867.68386363637</v>
+        <v>39867.68386363636</v>
       </c>
       <c r="P93">
         <v>0</v>
@@ -5213,13 +5213,13 @@
         <v>45098</v>
       </c>
       <c r="B94">
-        <v>38624.96</v>
+        <v>38624.97</v>
       </c>
       <c r="C94">
         <v>38651.91</v>
       </c>
       <c r="D94">
-        <v>38024.31</v>
+        <v>38024.32</v>
       </c>
       <c r="E94">
         <v>38113.62</v>
@@ -5243,7 +5243,7 @@
         <v>-1.58</v>
       </c>
       <c r="L94">
-        <v>125.12</v>
+        <v>125.13</v>
       </c>
       <c r="M94">
         <v>0.24</v>
@@ -5252,7 +5252,7 @@
         <v>1.62</v>
       </c>
       <c r="O94">
-        <v>39874.45204545454</v>
+        <v>39874.45204545455</v>
       </c>
       <c r="P94">
         <v>0</v>
@@ -5302,7 +5302,7 @@
         <v>1.56</v>
       </c>
       <c r="O95">
-        <v>39846.37772727273</v>
+        <v>39846.3775</v>
       </c>
       <c r="P95">
         <v>0</v>
@@ -5352,7 +5352,7 @@
         <v>2.23</v>
       </c>
       <c r="O96">
-        <v>39793.92454545455</v>
+        <v>39793.92431818182</v>
       </c>
       <c r="P96">
         <v>0</v>
@@ -5366,7 +5366,7 @@
         <v>37532.7</v>
       </c>
       <c r="C97">
-        <v>37868.51</v>
+        <v>37868.52</v>
       </c>
       <c r="D97">
         <v>37496.34</v>
@@ -5402,7 +5402,7 @@
         <v>0.99</v>
       </c>
       <c r="O97">
-        <v>39734.58818181818</v>
+        <v>39734.58795454546</v>
       </c>
       <c r="P97">
         <v>0</v>
@@ -5416,10 +5416,10 @@
         <v>37850.88</v>
       </c>
       <c r="C98">
-        <v>37987.81</v>
+        <v>37987.8</v>
       </c>
       <c r="D98">
-        <v>37659.32</v>
+        <v>37659.31</v>
       </c>
       <c r="E98">
         <v>37771.73</v>
@@ -5452,7 +5452,7 @@
         <v>0.87</v>
       </c>
       <c r="O98">
-        <v>39674.06613636364</v>
+        <v>39674.06590909091</v>
       </c>
       <c r="P98">
         <v>0</v>
@@ -5502,7 +5502,7 @@
         <v>1.07</v>
       </c>
       <c r="O99">
-        <v>39599.31454545454</v>
+        <v>39599.31431818182</v>
       </c>
       <c r="P99">
         <v>0</v>
@@ -5563,16 +5563,16 @@
         <v>45111</v>
       </c>
       <c r="B101">
-        <v>37355.87</v>
+        <v>37355.88</v>
       </c>
       <c r="C101">
         <v>37439.06</v>
       </c>
       <c r="D101">
-        <v>36868.74</v>
+        <v>36868.75</v>
       </c>
       <c r="E101">
-        <v>36980.61</v>
+        <v>36980.62</v>
       </c>
       <c r="F101">
         <v>37142.39</v>
@@ -5593,7 +5593,7 @@
         <v>-1.32</v>
       </c>
       <c r="L101">
-        <v>213.48</v>
+        <v>213.49</v>
       </c>
       <c r="M101">
         <v>0.3100000000000001</v>
@@ -5602,7 +5602,7 @@
         <v>1.53</v>
       </c>
       <c r="O101">
-        <v>39452.16636363636</v>
+        <v>39452.1665909091</v>
       </c>
       <c r="P101">
         <v>0</v>
@@ -5625,7 +5625,7 @@
         <v>36581.45</v>
       </c>
       <c r="F102">
-        <v>36980.61</v>
+        <v>36980.62</v>
       </c>
       <c r="G102">
         <v>30541</v>
@@ -5643,7 +5643,7 @@
         <v>-1.95</v>
       </c>
       <c r="L102">
-        <v>256.72</v>
+        <v>256.71</v>
       </c>
       <c r="M102">
         <v>0.1599999999999999</v>
@@ -5652,7 +5652,7 @@
         <v>1.91</v>
       </c>
       <c r="O102">
-        <v>39374.15113636364</v>
+        <v>39374.15159090909</v>
       </c>
       <c r="P102">
         <v>0</v>
@@ -5702,7 +5702,7 @@
         <v>1.98</v>
       </c>
       <c r="O103">
-        <v>39297.23454545455</v>
+        <v>39297.23522727273</v>
       </c>
       <c r="P103">
         <v>0</v>
@@ -5752,7 +5752,7 @@
         <v>2.71</v>
       </c>
       <c r="O104">
-        <v>39200.81840909091</v>
+        <v>39200.81909090909</v>
       </c>
       <c r="P104">
         <v>0</v>
@@ -5802,7 +5802,7 @@
         <v>1.62</v>
       </c>
       <c r="O105">
-        <v>39095.07909090909</v>
+        <v>39095.07977272727</v>
       </c>
       <c r="P105">
         <v>0</v>
@@ -5813,13 +5813,13 @@
         <v>45118</v>
       </c>
       <c r="B106">
-        <v>36450.29</v>
+        <v>36450.3</v>
       </c>
       <c r="C106">
-        <v>36531.28</v>
+        <v>36531.29</v>
       </c>
       <c r="D106">
-        <v>36061.58</v>
+        <v>36061.59</v>
       </c>
       <c r="E106">
         <v>36156.77</v>
@@ -5843,7 +5843,7 @@
         <v>-1.08</v>
       </c>
       <c r="L106">
-        <v>204.66</v>
+        <v>204.67</v>
       </c>
       <c r="M106">
         <v>0.27</v>
@@ -5852,7 +5852,7 @@
         <v>1.29</v>
       </c>
       <c r="O106">
-        <v>38981.57840909091</v>
+        <v>38981.57909090909</v>
       </c>
       <c r="P106">
         <v>0</v>
@@ -5866,7 +5866,7 @@
         <v>36261.07</v>
       </c>
       <c r="C107">
-        <v>36343.7</v>
+        <v>36343.71</v>
       </c>
       <c r="D107">
         <v>35822.75</v>
@@ -5902,7 +5902,7 @@
         <v>1.44</v>
       </c>
       <c r="O107">
-        <v>38861.72886363637</v>
+        <v>38861.72954545455</v>
       </c>
       <c r="P107">
         <v>0</v>
@@ -5952,7 +5952,7 @@
         <v>2.25</v>
       </c>
       <c r="O108">
-        <v>38748.46227272727</v>
+        <v>38748.46295454546</v>
       </c>
       <c r="P108">
         <v>0</v>
@@ -6002,7 +6002,7 @@
         <v>1.54</v>
       </c>
       <c r="O109">
-        <v>38635.03204545454</v>
+        <v>38635.03272727273</v>
       </c>
       <c r="P109">
         <v>0</v>
@@ -6052,7 +6052,7 @@
         <v>1.14</v>
       </c>
       <c r="O110">
-        <v>38509.06772727273</v>
+        <v>38509.06840909091</v>
       </c>
       <c r="P110">
         <v>0</v>
@@ -6102,7 +6102,7 @@
         <v>1.47</v>
       </c>
       <c r="O111">
-        <v>38379.33545454546</v>
+        <v>38379.33613636364</v>
       </c>
       <c r="P111">
         <v>0</v>
@@ -6152,7 +6152,7 @@
         <v>1.52</v>
       </c>
       <c r="O112">
-        <v>38232.53409090909</v>
+        <v>38232.53477272727</v>
       </c>
       <c r="P112">
         <v>0</v>
@@ -6202,7 +6202,7 @@
         <v>1.43</v>
       </c>
       <c r="O113">
-        <v>38102.07477272728</v>
+        <v>38102.07522727273</v>
       </c>
       <c r="P113">
         <v>0</v>
@@ -6252,7 +6252,7 @@
         <v>1.21</v>
       </c>
       <c r="O114">
-        <v>37988.73636363637</v>
+        <v>37988.73681818182</v>
       </c>
       <c r="P114">
         <v>0</v>
@@ -6302,7 +6302,7 @@
         <v>3.84</v>
       </c>
       <c r="O115">
-        <v>37894.69909090909</v>
+        <v>37894.69931818182</v>
       </c>
       <c r="P115">
         <v>0</v>
@@ -6352,7 +6352,7 @@
         <v>2.81</v>
       </c>
       <c r="O116">
-        <v>37792.18772727273</v>
+        <v>37792.18795454546</v>
       </c>
       <c r="P116">
         <v>1</v>
@@ -6402,7 +6402,7 @@
         <v>1.85</v>
       </c>
       <c r="O117">
-        <v>37700.36954545455</v>
+        <v>37700.36977272727</v>
       </c>
       <c r="P117">
         <v>1</v>
@@ -6416,7 +6416,7 @@
         <v>37625.84</v>
       </c>
       <c r="C118">
-        <v>37755.35</v>
+        <v>37755.34</v>
       </c>
       <c r="D118">
         <v>36958.4</v>
@@ -6452,7 +6452,7 @@
         <v>2.12</v>
       </c>
       <c r="O118">
-        <v>37611.08545454546</v>
+        <v>37611.08568181819</v>
       </c>
       <c r="P118">
         <v>1</v>
@@ -6502,7 +6502,7 @@
         <v>0.65</v>
       </c>
       <c r="O119">
-        <v>37526.27386363636</v>
+        <v>37526.27409090909</v>
       </c>
       <c r="P119">
         <v>0</v>
@@ -6552,7 +6552,7 @@
         <v>5.29</v>
       </c>
       <c r="O120">
-        <v>37534.45272727273</v>
+        <v>37534.45295454545</v>
       </c>
       <c r="P120">
         <v>1</v>
@@ -6602,7 +6602,7 @@
         <v>2.55</v>
       </c>
       <c r="O121">
-        <v>37554.01772727273</v>
+        <v>37554.01795454545</v>
       </c>
       <c r="P121">
         <v>0</v>
@@ -6652,7 +6652,7 @@
         <v>2.33</v>
       </c>
       <c r="O122">
-        <v>37551.30386363636</v>
+        <v>37551.30409090909</v>
       </c>
       <c r="P122">
         <v>0</v>
@@ -6702,7 +6702,7 @@
         <v>1.52</v>
       </c>
       <c r="O123">
-        <v>37552.62045454545</v>
+        <v>37552.62068181818</v>
       </c>
       <c r="P123">
         <v>0</v>
@@ -6713,10 +6713,10 @@
         <v>45142</v>
       </c>
       <c r="B124">
-        <v>38791.37</v>
+        <v>38791.38</v>
       </c>
       <c r="C124">
-        <v>38922.32</v>
+        <v>38922.33</v>
       </c>
       <c r="D124">
         <v>38482.56</v>
@@ -6743,7 +6743,7 @@
         <v>-0.8</v>
       </c>
       <c r="L124">
-        <v>165.01</v>
+        <v>165.02</v>
       </c>
       <c r="M124">
         <v>0.7200000000000001</v>
@@ -6752,7 +6752,7 @@
         <v>1.13</v>
       </c>
       <c r="O124">
-        <v>37548.92659090909</v>
+        <v>37548.92681818182</v>
       </c>
       <c r="P124">
         <v>0</v>
@@ -6802,7 +6802,7 @@
         <v>1.73</v>
       </c>
       <c r="O125">
-        <v>37566.37113636363</v>
+        <v>37566.37136363637</v>
       </c>
       <c r="P125">
         <v>0</v>
@@ -6852,7 +6852,7 @@
         <v>1.08</v>
       </c>
       <c r="O126">
-        <v>37573.4790909091</v>
+        <v>37573.47931818182</v>
       </c>
       <c r="P126">
         <v>0</v>
@@ -6902,7 +6902,7 @@
         <v>1.93</v>
       </c>
       <c r="O127">
-        <v>37579.10090909091</v>
+        <v>37579.10113636364</v>
       </c>
       <c r="P127">
         <v>0</v>
@@ -6952,7 +6952,7 @@
         <v>4.55</v>
       </c>
       <c r="O128">
-        <v>37597.21545454545</v>
+        <v>37597.21568181818</v>
       </c>
       <c r="P128">
         <v>0</v>
@@ -7002,7 +7002,7 @@
         <v>6.18</v>
       </c>
       <c r="O129">
-        <v>37640.24727272727</v>
+        <v>37640.2475</v>
       </c>
       <c r="P129">
         <v>0</v>
@@ -7013,7 +7013,7 @@
         <v>45152</v>
       </c>
       <c r="B130">
-        <v>40733.94</v>
+        <v>40733.93</v>
       </c>
       <c r="C130">
         <v>40991.7</v>
@@ -7043,7 +7043,7 @@
         <v>-1.1</v>
       </c>
       <c r="L130">
-        <v>-14.94</v>
+        <v>-14.95</v>
       </c>
       <c r="M130">
         <v>-0.34</v>
@@ -7052,7 +7052,7 @@
         <v>1.73</v>
       </c>
       <c r="O130">
-        <v>37700.16204545454</v>
+        <v>37700.16227272727</v>
       </c>
       <c r="P130">
         <v>0</v>
@@ -7102,7 +7102,7 @@
         <v>2.11</v>
       </c>
       <c r="O131">
-        <v>37771.87931818182</v>
+        <v>37771.87954545455</v>
       </c>
       <c r="P131">
         <v>0</v>
@@ -7152,7 +7152,7 @@
         <v>1.28</v>
       </c>
       <c r="O132">
-        <v>37837.17681818182</v>
+        <v>37837.17704545455</v>
       </c>
       <c r="P132">
         <v>0</v>
@@ -7202,7 +7202,7 @@
         <v>3.12</v>
       </c>
       <c r="O133">
-        <v>37879.86272727272</v>
+        <v>37879.86295454545</v>
       </c>
       <c r="P133">
         <v>0</v>
@@ -7252,7 +7252,7 @@
         <v>1.46</v>
       </c>
       <c r="O134">
-        <v>37932.43068181818</v>
+        <v>37932.43090909092</v>
       </c>
       <c r="P134">
         <v>0</v>
@@ -7302,7 +7302,7 @@
         <v>0.92</v>
       </c>
       <c r="O135">
-        <v>37975.73431818182</v>
+        <v>37975.73454545454</v>
       </c>
       <c r="P135">
         <v>0</v>
@@ -7352,7 +7352,7 @@
         <v>1.98</v>
       </c>
       <c r="O136">
-        <v>38003.4975</v>
+        <v>38003.49772727273</v>
       </c>
       <c r="P136">
         <v>0</v>
@@ -7402,7 +7402,7 @@
         <v>0.6</v>
       </c>
       <c r="O137">
-        <v>38035.74727272727</v>
+        <v>38035.7475</v>
       </c>
       <c r="P137">
         <v>0</v>
@@ -7452,7 +7452,7 @@
         <v>2.25</v>
       </c>
       <c r="O138">
-        <v>38060.72068181818</v>
+        <v>38060.72090909091</v>
       </c>
       <c r="P138">
         <v>0</v>
@@ -7502,7 +7502,7 @@
         <v>1.98</v>
       </c>
       <c r="O139">
-        <v>38099.77704545455</v>
+        <v>38099.77727272727</v>
       </c>
       <c r="P139">
         <v>0</v>
@@ -7552,7 +7552,7 @@
         <v>1.31</v>
       </c>
       <c r="O140">
-        <v>38143.38431818182</v>
+        <v>38143.38454545454</v>
       </c>
       <c r="P140">
         <v>0</v>
@@ -7602,7 +7602,7 @@
         <v>1.01</v>
       </c>
       <c r="O141">
-        <v>38187.06</v>
+        <v>38187.06022727273</v>
       </c>
       <c r="P141">
         <v>0</v>
@@ -7652,7 +7652,7 @@
         <v>2.51</v>
       </c>
       <c r="O142">
-        <v>38239.35636363637</v>
+        <v>38239.35659090909</v>
       </c>
       <c r="P142">
         <v>0</v>
@@ -7702,7 +7702,7 @@
         <v>1.39</v>
       </c>
       <c r="O143">
-        <v>38290.23636363637</v>
+        <v>38290.23659090909</v>
       </c>
       <c r="P143">
         <v>0</v>
@@ -7752,7 +7752,7 @@
         <v>1.46</v>
       </c>
       <c r="O144">
-        <v>38344.70681818182</v>
+        <v>38344.70704545454</v>
       </c>
       <c r="P144">
         <v>0</v>
@@ -7802,7 +7802,7 @@
         <v>1.17</v>
       </c>
       <c r="O145">
-        <v>38400.27636363637</v>
+        <v>38400.27636363636</v>
       </c>
       <c r="P145">
         <v>0</v>
@@ -7852,7 +7852,7 @@
         <v>4.31</v>
       </c>
       <c r="O146">
-        <v>38494.44022727272</v>
+        <v>38494.44022727273</v>
       </c>
       <c r="P146">
         <v>0</v>
@@ -7952,7 +7952,7 @@
         <v>2.6</v>
       </c>
       <c r="O148">
-        <v>38741.28045454546</v>
+        <v>38741.28045454545</v>
       </c>
       <c r="P148">
         <v>0</v>
@@ -8502,7 +8502,7 @@
         <v>1.43</v>
       </c>
       <c r="O159">
-        <v>39647.32795454546</v>
+        <v>39647.32795454545</v>
       </c>
       <c r="P159">
         <v>0</v>
@@ -8952,7 +8952,7 @@
         <v>1.15</v>
       </c>
       <c r="O168">
-        <v>39882.43477272728</v>
+        <v>39882.43477272727</v>
       </c>
       <c r="P168">
         <v>0</v>
@@ -9002,7 +9002,7 @@
         <v>1.2</v>
       </c>
       <c r="O169">
-        <v>39888.02545454546</v>
+        <v>39888.02545454545</v>
       </c>
       <c r="P169">
         <v>0</v>
@@ -9152,7 +9152,7 @@
         <v>1.57</v>
       </c>
       <c r="O172">
-        <v>39879.82022727273</v>
+        <v>39879.82022727272</v>
       </c>
       <c r="P172">
         <v>0</v>
@@ -9602,7 +9602,7 @@
         <v>2.24</v>
       </c>
       <c r="O181">
-        <v>39323.80977272728</v>
+        <v>39323.80977272727</v>
       </c>
       <c r="P181">
         <v>0</v>
@@ -9752,7 +9752,7 @@
         <v>1.97</v>
       </c>
       <c r="O184">
-        <v>39196.52204545455</v>
+        <v>39196.52204545454</v>
       </c>
       <c r="P184">
         <v>0</v>
@@ -9852,7 +9852,7 @@
         <v>1.12</v>
       </c>
       <c r="O186">
-        <v>39084.47431818181</v>
+        <v>39084.47431818182</v>
       </c>
       <c r="P186">
         <v>0</v>
@@ -10852,7 +10852,7 @@
         <v>2.5</v>
       </c>
       <c r="O206">
-        <v>37925.10000000001</v>
+        <v>37925.1</v>
       </c>
       <c r="P206">
         <v>0</v>
@@ -11002,7 +11002,7 @@
         <v>1.56</v>
       </c>
       <c r="O209">
-        <v>37808.64454545455</v>
+        <v>37808.64454545454</v>
       </c>
       <c r="P209">
         <v>0</v>
@@ -11102,7 +11102,7 @@
         <v>1.46</v>
       </c>
       <c r="O211">
-        <v>37725.15818181819</v>
+        <v>37725.15818181818</v>
       </c>
       <c r="P211">
         <v>0</v>
@@ -11352,7 +11352,7 @@
         <v>3.66</v>
       </c>
       <c r="O216">
-        <v>37545.13454545454</v>
+        <v>37545.13454545455</v>
       </c>
       <c r="P216">
         <v>1</v>
@@ -11652,7 +11652,7 @@
         <v>1.36</v>
       </c>
       <c r="O222">
-        <v>37523.80545454546</v>
+        <v>37523.80545454545</v>
       </c>
       <c r="P222">
         <v>0</v>
@@ -11802,7 +11802,7 @@
         <v>1.71</v>
       </c>
       <c r="O225">
-        <v>37633.22363636363</v>
+        <v>37633.22363636364</v>
       </c>
       <c r="P225">
         <v>0</v>
@@ -11909,7 +11909,7 @@
         <v>1.53</v>
       </c>
       <c r="O226">
-        <v>37663.53727272728</v>
+        <v>37663.53727272727</v>
       </c>
       <c r="P226">
         <v>0</v>
@@ -12230,7 +12230,7 @@
         <v>4.94</v>
       </c>
       <c r="O229">
-        <v>37682.95181818181</v>
+        <v>37682.95181818182</v>
       </c>
       <c r="P229">
         <v>1</v>
@@ -12337,7 +12337,7 @@
         <v>4.65</v>
       </c>
       <c r="O230">
-        <v>37676.42386363637</v>
+        <v>37676.42386363636</v>
       </c>
       <c r="P230">
         <v>0</v>
@@ -12658,7 +12658,7 @@
         <v>3.34</v>
       </c>
       <c r="O233">
-        <v>37646.98568181819</v>
+        <v>37646.98568181818</v>
       </c>
       <c r="P233">
         <v>1</v>
@@ -13086,7 +13086,7 @@
         <v>1.32</v>
       </c>
       <c r="O237">
-        <v>37687.9625</v>
+        <v>37687.96249999999</v>
       </c>
       <c r="P237">
         <v>1</v>
@@ -13457,7 +13457,7 @@
         <v>1.52</v>
       </c>
       <c r="O241">
-        <v>37621.3534090909</v>
+        <v>37621.35340909091</v>
       </c>
       <c r="P241">
         <v>0</v>
@@ -13564,7 +13564,7 @@
         <v>4.05</v>
       </c>
       <c r="O242">
-        <v>37619.94772727273</v>
+        <v>37619.94772727272</v>
       </c>
       <c r="P242">
         <v>1</v>
@@ -13992,7 +13992,7 @@
         <v>1.24</v>
       </c>
       <c r="O246">
-        <v>37586.09431818182</v>
+        <v>37586.09431818181</v>
       </c>
       <c r="P246">
         <v>0</v>
